--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/sample1_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/sample1_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\Angle\sample1_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16615925-8DA4-4F2D-9033-9A2BD9D23500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821481E3-4EA3-484A-B91F-FCFDC5084CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{121A51B5-A6E8-473F-84BC-0DD437FB4702}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{08766FFD-4A32-48A1-B4A3-5C8EDD3707E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49B510E-716D-4BA6-9BEA-000AF3DADD8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D44DC99-AE6B-4BBF-B547-9B0CAA7A261D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>31.053820557953816</v>
+        <v>15.18192473958838</v>
       </c>
     </row>
   </sheetData>
